--- a/organization/plugins.xlsx
+++ b/organization/plugins.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t xml:space="preserve">14/19 pts</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Dani</t>
   </si>
   <si>
-    <t xml:space="preserve">Frameowrk Frontend</t>
+    <t xml:space="preserve">Framework Frontend</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
@@ -49,37 +49,64 @@
     <t xml:space="preserve">Mario</t>
   </si>
   <si>
-    <t xml:space="preserve">Database for Backend</t>
+    <t xml:space="preserve">Implement real-time features using WebSockets or similar technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow users to interact with other users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A public API to interact with the database with a secured API key, ratelimiting, documentation, and at least 5 endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use an ORM for the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A complete notification system for all creation, update, and deletion actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-time collaborative features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progressive Web App (PWA) with offline support and installability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom-made design system with reusable components, including a proper color palette, typography, and icons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement advanced search functionality with filters, sorting, and pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File upload and management system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Managament Authentication</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
   </si>
   <si>
-    <t xml:space="preserve">Nacho</t>
+    <t xml:space="preserve">Game statistics and match history</t>
   </si>
   <si>
-    <t xml:space="preserve">User Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Managament Authentication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game statistics and match history</t>
+    <t xml:space="preserve">Advanced permissions system</t>
   </si>
   <si>
     <t xml:space="preserve">Implement remote authentication with OAuth 2.0</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced permissions system</t>
   </si>
   <si>
     <t xml:space="preserve">An organization system</t>
@@ -107,6 +134,21 @@
   </si>
   <si>
     <t xml:space="preserve">Add another game with user history and matchmaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement advanced 3D graphics using a library like Three.js or Babylon.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced chat features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement a tournament system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gamification system to reward users for their actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement spectator mode for games</t>
   </si>
   <si>
     <t xml:space="preserve">User HIstory and Matchmaking</t>
@@ -169,12 +211,6 @@
     <t xml:space="preserve">Designing microservers</t>
   </si>
   <si>
-    <t xml:space="preserve">Graphics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced 3D Techniques</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accesibility</t>
   </si>
   <si>
@@ -223,7 +259,13 @@
     <t xml:space="preserve">Use ICP (Internet Computer Protocol) for a backend that runs on a blockchain (incompatible with SSR)</t>
   </si>
   <si>
+    <t xml:space="preserve">Personal Proyect</t>
+  </si>
+  <si>
     <t xml:space="preserve">Implement a custom module that is not listed above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team</t>
   </si>
   <si>
     <t xml:space="preserve">Igual que el de arriba pero sin justificacion</t>
@@ -237,7 +279,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -287,12 +329,6 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -389,7 +425,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -434,15 +470,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,22 +559,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC1014"/>
+  <dimension ref="A1:AC1029"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F56" activeCellId="0" sqref="F56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="4.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="59.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="98.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.13"/>
   </cols>
   <sheetData>
@@ -644,7 +684,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
@@ -713,7 +753,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
@@ -724,14 +764,12 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -756,18 +794,20 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="n">
         <f aca="false">SUMIF(G:G, "N", E:E)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
+      <c r="E7" s="6" t="n">
+        <v>2</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -792,22 +832,20 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6" t="n">
         <f aca="false">SUMIF(G:G, "S", E:E)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="11" t="n">
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>14</v>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -831,21 +869,21 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
+      <c r="B9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="n">
         <f aca="false">SUMIF(G:G, "&lt;&gt;", E:E)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="11" t="n">
+      <c r="E9" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>16</v>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="6"/>
       <c r="H9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -872,17 +910,14 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>17</v>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -908,15 +943,14 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="11" t="n">
-        <v>2</v>
+      <c r="E11" s="6" t="n">
+        <v>1</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>19</v>
+      <c r="F11" s="6" t="s">
+        <v>17</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -942,15 +976,14 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="11" t="n">
-        <v>2</v>
+      <c r="E12" s="6" t="n">
+        <v>1</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>20</v>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -976,15 +1009,14 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="11" t="n">
+      <c r="E13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>21</v>
+      <c r="F13" s="6" t="s">
+        <v>19</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1010,15 +1042,14 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="11" t="n">
+      <c r="E14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>22</v>
+      <c r="F14" s="6" t="s">
+        <v>20</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1044,15 +1075,14 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
+      <c r="E15" s="6" t="n">
+        <v>1</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>24</v>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1075,19 +1105,15 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="11" t="n">
-        <v>2</v>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="11"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1113,16 +1139,16 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>26</v>
+      <c r="F17" s="12" t="s">
+        <v>23</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1147,17 +1173,15 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="11" t="n">
-        <v>2</v>
+      <c r="D18" s="3"/>
+      <c r="E18" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>27</v>
+      <c r="F18" s="12" t="s">
+        <v>25</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="12"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1180,19 +1204,17 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>28</v>
+      <c r="F19" s="12" t="s">
+        <v>26</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1218,16 +1240,16 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="11" t="n">
-        <v>2</v>
+      <c r="E20" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>29</v>
+      <c r="F20" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1253,18 +1275,15 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="11" t="n">
-        <v>1</v>
+      <c r="E21" s="12" t="n">
+        <v>2</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>30</v>
+      <c r="F21" s="12" t="s">
+        <v>29</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="G21" s="12"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -1290,16 +1309,15 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="11" t="n">
-        <v>2</v>
+      <c r="E22" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>31</v>
+      <c r="F22" s="12" t="s">
+        <v>30</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1325,14 +1343,15 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="4" t="s">
-        <v>32</v>
+      <c r="E23" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="12"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1355,21 +1374,18 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="11" t="n">
-        <v>2</v>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1395,18 +1411,15 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="11" t="n">
-        <v>1</v>
+      <c r="E25" s="12" t="n">
+        <v>2</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>35</v>
+      <c r="F25" s="12" t="s">
+        <v>34</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="G25" s="12"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1431,14 +1444,14 @@
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="11" t="n">
+      <c r="D26" s="3"/>
+      <c r="E26" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>36</v>
+      <c r="F26" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1467,13 +1480,13 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="11" t="n">
+      <c r="E27" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>37</v>
+      <c r="F27" s="12" t="s">
+        <v>36</v>
       </c>
-      <c r="G27" s="11"/>
+      <c r="G27" s="12"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1502,13 +1515,13 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="11" t="n">
+      <c r="E28" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>38</v>
+      <c r="F28" s="12" t="s">
+        <v>37</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1537,13 +1550,13 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="11" t="n">
-        <v>1</v>
+      <c r="E29" s="12" t="n">
+        <v>2</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>39</v>
+      <c r="F29" s="12" t="s">
+        <v>38</v>
       </c>
-      <c r="G29" s="11"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1572,13 +1585,13 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="11" t="n">
+      <c r="E30" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>40</v>
+      <c r="F30" s="12" t="s">
+        <v>39</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1607,13 +1620,13 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="11" t="n">
+      <c r="E31" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>41</v>
+      <c r="F31" s="12" t="s">
+        <v>40</v>
       </c>
-      <c r="G31" s="11"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1639,18 +1652,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="11" t="n">
+      <c r="E32" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>42</v>
+      <c r="F32" s="12" t="s">
+        <v>41</v>
       </c>
-      <c r="G32" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="G32" s="12"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1679,11 +1690,13 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="4" t="s">
-        <v>43</v>
+      <c r="E33" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="F33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="12"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1709,18 +1722,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="11" t="n">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>44</v>
+      <c r="F34" s="12" t="s">
+        <v>43</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="G34" s="12"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1749,11 +1760,15 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="4" t="s">
-        <v>45</v>
+      <c r="E35" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1782,13 +1797,13 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="11" t="n">
+      <c r="E36" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>46</v>
+      <c r="F36" s="12" t="s">
+        <v>45</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" s="12"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1817,13 +1832,11 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="11" t="n">
-        <v>1</v>
+      <c r="E37" s="4" t="s">
+        <v>46</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" s="11"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1852,13 +1865,15 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="11" t="n">
+      <c r="E38" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="11"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1886,12 +1901,14 @@
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="3"/>
+      <c r="E39" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="G39" s="12"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1920,13 +1937,13 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="11" t="n">
+      <c r="E40" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" s="12"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1955,11 +1972,15 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1985,18 +2006,16 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="11" t="n">
-        <v>1</v>
+      <c r="E42" s="12" t="n">
+        <v>2</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="G42" s="12"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2025,13 +2044,13 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="11" t="n">
+      <c r="E43" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" s="12"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2060,15 +2079,13 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="11" t="n">
+      <c r="E44" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="F44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="G44" s="12"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2097,13 +2114,13 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="11" t="n">
+      <c r="E45" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="11"/>
+      <c r="G45" s="12"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2132,13 +2149,13 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="11" t="n">
+      <c r="E46" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="F46" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="11"/>
+      <c r="G46" s="12"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2200,13 +2217,15 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="11" t="n">
+      <c r="E48" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="11"/>
+      <c r="G48" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2234,14 +2253,12 @@
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="D49" s="3"/>
+      <c r="E49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="11"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2270,11 +2287,13 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
+      <c r="G50" s="12"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2303,13 +2322,13 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="11" t="n">
-        <v>2</v>
+      <c r="E51" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="F51" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="11"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2338,13 +2357,13 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="11" t="n">
-        <v>1</v>
+      <c r="E52" s="12" t="n">
+        <v>2</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="11"/>
+      <c r="G52" s="12"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2373,15 +2392,11 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="11" t="s">
+      <c r="E53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2410,11 +2425,15 @@
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
+      <c r="G54" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2443,15 +2462,13 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="11" t="n">
-        <v>2</v>
+      <c r="E55" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="G55" s="12"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2480,13 +2497,15 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="11" t="n">
+      <c r="E56" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G56" s="11"/>
+      <c r="G56" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2515,11 +2534,13 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="4" t="s">
-        <v>64</v>
+      <c r="E57" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="F57" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="12"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2548,13 +2569,13 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="6" t="n">
-        <v>2</v>
+      <c r="E58" s="12" t="n">
+        <v>1</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>67</v>
+      <c r="F58" s="12" t="s">
+        <v>68</v>
       </c>
-      <c r="G58" s="6"/>
+      <c r="G58" s="12"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2583,13 +2604,11 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="6" t="n">
-        <v>1</v>
+      <c r="E59" s="4" t="s">
+        <v>69</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" s="6"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2618,9 +2637,13 @@
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="E60" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="12"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -2649,9 +2672,13 @@
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="E61" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="12"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2680,9 +2707,11 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="E62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -2711,9 +2740,15 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="E63" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2742,9 +2777,13 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
+      <c r="E64" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G64" s="12"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -2773,9 +2812,15 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
+      <c r="E65" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -2804,9 +2849,11 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
+      <c r="E66" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -2835,9 +2882,15 @@
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
+      <c r="E67" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -2866,9 +2919,13 @@
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="E68" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="12"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -2897,9 +2954,11 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="E69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -2928,9 +2987,15 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="E70" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -2959,9 +3024,13 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="E71" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="14"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -32192,6 +32261,9 @@
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
       <c r="D1014" s="1"/>
+      <c r="E1014" s="1"/>
+      <c r="F1014" s="1"/>
+      <c r="G1014" s="1"/>
       <c r="H1014" s="1"/>
       <c r="I1014" s="1"/>
       <c r="J1014" s="1"/>
@@ -32215,25 +32287,463 @@
       <c r="AB1014" s="1"/>
       <c r="AC1014" s="1"/>
     </row>
+    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
+      <c r="E1015" s="1"/>
+      <c r="F1015" s="1"/>
+      <c r="G1015" s="1"/>
+      <c r="H1015" s="1"/>
+      <c r="I1015" s="1"/>
+      <c r="J1015" s="1"/>
+      <c r="K1015" s="1"/>
+      <c r="L1015" s="1"/>
+      <c r="M1015" s="1"/>
+      <c r="N1015" s="1"/>
+      <c r="O1015" s="1"/>
+      <c r="P1015" s="1"/>
+      <c r="Q1015" s="1"/>
+      <c r="R1015" s="1"/>
+      <c r="S1015" s="1"/>
+      <c r="T1015" s="1"/>
+      <c r="U1015" s="1"/>
+      <c r="V1015" s="1"/>
+      <c r="W1015" s="1"/>
+      <c r="X1015" s="1"/>
+      <c r="Y1015" s="1"/>
+      <c r="Z1015" s="1"/>
+      <c r="AA1015" s="1"/>
+      <c r="AB1015" s="1"/>
+      <c r="AC1015" s="1"/>
+    </row>
+    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1016" s="1"/>
+      <c r="B1016" s="1"/>
+      <c r="C1016" s="1"/>
+      <c r="D1016" s="1"/>
+      <c r="E1016" s="1"/>
+      <c r="F1016" s="1"/>
+      <c r="G1016" s="1"/>
+      <c r="H1016" s="1"/>
+      <c r="I1016" s="1"/>
+      <c r="J1016" s="1"/>
+      <c r="K1016" s="1"/>
+      <c r="L1016" s="1"/>
+      <c r="M1016" s="1"/>
+      <c r="N1016" s="1"/>
+      <c r="O1016" s="1"/>
+      <c r="P1016" s="1"/>
+      <c r="Q1016" s="1"/>
+      <c r="R1016" s="1"/>
+      <c r="S1016" s="1"/>
+      <c r="T1016" s="1"/>
+      <c r="U1016" s="1"/>
+      <c r="V1016" s="1"/>
+      <c r="W1016" s="1"/>
+      <c r="X1016" s="1"/>
+      <c r="Y1016" s="1"/>
+      <c r="Z1016" s="1"/>
+      <c r="AA1016" s="1"/>
+      <c r="AB1016" s="1"/>
+      <c r="AC1016" s="1"/>
+    </row>
+    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="1"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1"/>
+      <c r="I1017" s="1"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+      <c r="X1017" s="1"/>
+      <c r="Y1017" s="1"/>
+      <c r="Z1017" s="1"/>
+      <c r="AA1017" s="1"/>
+      <c r="AB1017" s="1"/>
+      <c r="AC1017" s="1"/>
+    </row>
+    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+      <c r="I1018" s="1"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="1"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
+      <c r="W1018" s="1"/>
+      <c r="X1018" s="1"/>
+      <c r="Y1018" s="1"/>
+      <c r="Z1018" s="1"/>
+      <c r="AA1018" s="1"/>
+      <c r="AB1018" s="1"/>
+      <c r="AC1018" s="1"/>
+    </row>
+    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="1"/>
+      <c r="C1019" s="1"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="1"/>
+      <c r="F1019" s="1"/>
+      <c r="G1019" s="1"/>
+      <c r="H1019" s="1"/>
+      <c r="I1019" s="1"/>
+      <c r="J1019" s="1"/>
+      <c r="K1019" s="1"/>
+      <c r="L1019" s="1"/>
+      <c r="M1019" s="1"/>
+      <c r="N1019" s="1"/>
+      <c r="O1019" s="1"/>
+      <c r="P1019" s="1"/>
+      <c r="Q1019" s="1"/>
+      <c r="R1019" s="1"/>
+      <c r="S1019" s="1"/>
+      <c r="T1019" s="1"/>
+      <c r="U1019" s="1"/>
+      <c r="V1019" s="1"/>
+      <c r="W1019" s="1"/>
+      <c r="X1019" s="1"/>
+      <c r="Y1019" s="1"/>
+      <c r="Z1019" s="1"/>
+      <c r="AA1019" s="1"/>
+      <c r="AB1019" s="1"/>
+      <c r="AC1019" s="1"/>
+    </row>
+    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1020" s="1"/>
+      <c r="B1020" s="1"/>
+      <c r="C1020" s="1"/>
+      <c r="D1020" s="1"/>
+      <c r="E1020" s="1"/>
+      <c r="F1020" s="1"/>
+      <c r="G1020" s="1"/>
+      <c r="H1020" s="1"/>
+      <c r="I1020" s="1"/>
+      <c r="J1020" s="1"/>
+      <c r="K1020" s="1"/>
+      <c r="L1020" s="1"/>
+      <c r="M1020" s="1"/>
+      <c r="N1020" s="1"/>
+      <c r="O1020" s="1"/>
+      <c r="P1020" s="1"/>
+      <c r="Q1020" s="1"/>
+      <c r="R1020" s="1"/>
+      <c r="S1020" s="1"/>
+      <c r="T1020" s="1"/>
+      <c r="U1020" s="1"/>
+      <c r="V1020" s="1"/>
+      <c r="W1020" s="1"/>
+      <c r="X1020" s="1"/>
+      <c r="Y1020" s="1"/>
+      <c r="Z1020" s="1"/>
+      <c r="AA1020" s="1"/>
+      <c r="AB1020" s="1"/>
+      <c r="AC1020" s="1"/>
+    </row>
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1021" s="1"/>
+      <c r="B1021" s="1"/>
+      <c r="C1021" s="1"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="1"/>
+      <c r="F1021" s="1"/>
+      <c r="G1021" s="1"/>
+      <c r="H1021" s="1"/>
+      <c r="I1021" s="1"/>
+      <c r="J1021" s="1"/>
+      <c r="K1021" s="1"/>
+      <c r="L1021" s="1"/>
+      <c r="M1021" s="1"/>
+      <c r="N1021" s="1"/>
+      <c r="O1021" s="1"/>
+      <c r="P1021" s="1"/>
+      <c r="Q1021" s="1"/>
+      <c r="R1021" s="1"/>
+      <c r="S1021" s="1"/>
+      <c r="T1021" s="1"/>
+      <c r="U1021" s="1"/>
+      <c r="V1021" s="1"/>
+      <c r="W1021" s="1"/>
+      <c r="X1021" s="1"/>
+      <c r="Y1021" s="1"/>
+      <c r="Z1021" s="1"/>
+      <c r="AA1021" s="1"/>
+      <c r="AB1021" s="1"/>
+      <c r="AC1021" s="1"/>
+    </row>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1022" s="1"/>
+      <c r="B1022" s="1"/>
+      <c r="C1022" s="1"/>
+      <c r="D1022" s="1"/>
+      <c r="E1022" s="1"/>
+      <c r="F1022" s="1"/>
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="1"/>
+      <c r="I1022" s="1"/>
+      <c r="J1022" s="1"/>
+      <c r="K1022" s="1"/>
+      <c r="L1022" s="1"/>
+      <c r="M1022" s="1"/>
+      <c r="N1022" s="1"/>
+      <c r="O1022" s="1"/>
+      <c r="P1022" s="1"/>
+      <c r="Q1022" s="1"/>
+      <c r="R1022" s="1"/>
+      <c r="S1022" s="1"/>
+      <c r="T1022" s="1"/>
+      <c r="U1022" s="1"/>
+      <c r="V1022" s="1"/>
+      <c r="W1022" s="1"/>
+      <c r="X1022" s="1"/>
+      <c r="Y1022" s="1"/>
+      <c r="Z1022" s="1"/>
+      <c r="AA1022" s="1"/>
+      <c r="AB1022" s="1"/>
+      <c r="AC1022" s="1"/>
+    </row>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1023" s="1"/>
+      <c r="D1023" s="1"/>
+      <c r="E1023" s="1"/>
+      <c r="F1023" s="1"/>
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="1"/>
+      <c r="I1023" s="1"/>
+      <c r="J1023" s="1"/>
+      <c r="K1023" s="1"/>
+      <c r="L1023" s="1"/>
+      <c r="M1023" s="1"/>
+      <c r="N1023" s="1"/>
+      <c r="O1023" s="1"/>
+      <c r="P1023" s="1"/>
+      <c r="Q1023" s="1"/>
+      <c r="R1023" s="1"/>
+      <c r="S1023" s="1"/>
+      <c r="T1023" s="1"/>
+      <c r="U1023" s="1"/>
+      <c r="V1023" s="1"/>
+      <c r="W1023" s="1"/>
+      <c r="X1023" s="1"/>
+      <c r="Y1023" s="1"/>
+      <c r="Z1023" s="1"/>
+      <c r="AA1023" s="1"/>
+      <c r="AB1023" s="1"/>
+      <c r="AC1023" s="1"/>
+    </row>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1024" s="1"/>
+      <c r="D1024" s="1"/>
+      <c r="E1024" s="1"/>
+      <c r="F1024" s="1"/>
+      <c r="G1024" s="1"/>
+      <c r="H1024" s="1"/>
+      <c r="I1024" s="1"/>
+      <c r="J1024" s="1"/>
+      <c r="K1024" s="1"/>
+      <c r="L1024" s="1"/>
+      <c r="M1024" s="1"/>
+      <c r="N1024" s="1"/>
+      <c r="O1024" s="1"/>
+      <c r="P1024" s="1"/>
+      <c r="Q1024" s="1"/>
+      <c r="R1024" s="1"/>
+      <c r="S1024" s="1"/>
+      <c r="T1024" s="1"/>
+      <c r="U1024" s="1"/>
+      <c r="V1024" s="1"/>
+      <c r="W1024" s="1"/>
+      <c r="X1024" s="1"/>
+      <c r="Y1024" s="1"/>
+      <c r="Z1024" s="1"/>
+      <c r="AA1024" s="1"/>
+      <c r="AB1024" s="1"/>
+      <c r="AC1024" s="1"/>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1025" s="1"/>
+      <c r="D1025" s="1"/>
+      <c r="E1025" s="1"/>
+      <c r="F1025" s="1"/>
+      <c r="G1025" s="1"/>
+      <c r="H1025" s="1"/>
+      <c r="I1025" s="1"/>
+      <c r="J1025" s="1"/>
+      <c r="K1025" s="1"/>
+      <c r="L1025" s="1"/>
+      <c r="M1025" s="1"/>
+      <c r="N1025" s="1"/>
+      <c r="O1025" s="1"/>
+      <c r="P1025" s="1"/>
+      <c r="Q1025" s="1"/>
+      <c r="R1025" s="1"/>
+      <c r="S1025" s="1"/>
+      <c r="T1025" s="1"/>
+      <c r="U1025" s="1"/>
+      <c r="V1025" s="1"/>
+      <c r="W1025" s="1"/>
+      <c r="X1025" s="1"/>
+      <c r="Y1025" s="1"/>
+      <c r="Z1025" s="1"/>
+      <c r="AA1025" s="1"/>
+      <c r="AB1025" s="1"/>
+      <c r="AC1025" s="1"/>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1026" s="1"/>
+      <c r="D1026" s="1"/>
+      <c r="H1026" s="1"/>
+      <c r="I1026" s="1"/>
+      <c r="J1026" s="1"/>
+      <c r="K1026" s="1"/>
+      <c r="L1026" s="1"/>
+      <c r="M1026" s="1"/>
+      <c r="N1026" s="1"/>
+      <c r="O1026" s="1"/>
+      <c r="P1026" s="1"/>
+      <c r="Q1026" s="1"/>
+      <c r="R1026" s="1"/>
+      <c r="S1026" s="1"/>
+      <c r="T1026" s="1"/>
+      <c r="U1026" s="1"/>
+      <c r="V1026" s="1"/>
+      <c r="W1026" s="1"/>
+      <c r="X1026" s="1"/>
+      <c r="Y1026" s="1"/>
+      <c r="Z1026" s="1"/>
+      <c r="AA1026" s="1"/>
+      <c r="AB1026" s="1"/>
+      <c r="AC1026" s="1"/>
+    </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1027" s="1"/>
+      <c r="D1027" s="1"/>
+      <c r="H1027" s="1"/>
+      <c r="I1027" s="1"/>
+      <c r="J1027" s="1"/>
+      <c r="K1027" s="1"/>
+      <c r="L1027" s="1"/>
+      <c r="M1027" s="1"/>
+      <c r="N1027" s="1"/>
+      <c r="O1027" s="1"/>
+      <c r="P1027" s="1"/>
+      <c r="Q1027" s="1"/>
+      <c r="R1027" s="1"/>
+      <c r="S1027" s="1"/>
+      <c r="T1027" s="1"/>
+      <c r="U1027" s="1"/>
+      <c r="V1027" s="1"/>
+      <c r="W1027" s="1"/>
+      <c r="X1027" s="1"/>
+      <c r="Y1027" s="1"/>
+      <c r="Z1027" s="1"/>
+      <c r="AA1027" s="1"/>
+      <c r="AB1027" s="1"/>
+      <c r="AC1027" s="1"/>
+    </row>
+    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1028" s="1"/>
+      <c r="D1028" s="1"/>
+      <c r="H1028" s="1"/>
+      <c r="I1028" s="1"/>
+      <c r="J1028" s="1"/>
+      <c r="K1028" s="1"/>
+      <c r="L1028" s="1"/>
+      <c r="M1028" s="1"/>
+      <c r="N1028" s="1"/>
+      <c r="O1028" s="1"/>
+      <c r="P1028" s="1"/>
+      <c r="Q1028" s="1"/>
+      <c r="R1028" s="1"/>
+      <c r="S1028" s="1"/>
+      <c r="T1028" s="1"/>
+      <c r="U1028" s="1"/>
+      <c r="V1028" s="1"/>
+      <c r="W1028" s="1"/>
+      <c r="X1028" s="1"/>
+      <c r="Y1028" s="1"/>
+      <c r="Z1028" s="1"/>
+      <c r="AA1028" s="1"/>
+      <c r="AB1028" s="1"/>
+      <c r="AC1028" s="1"/>
+    </row>
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1029" s="1"/>
+      <c r="D1029" s="1"/>
+      <c r="H1029" s="1"/>
+      <c r="I1029" s="1"/>
+      <c r="J1029" s="1"/>
+      <c r="K1029" s="1"/>
+      <c r="L1029" s="1"/>
+      <c r="M1029" s="1"/>
+      <c r="N1029" s="1"/>
+      <c r="O1029" s="1"/>
+      <c r="P1029" s="1"/>
+      <c r="Q1029" s="1"/>
+      <c r="R1029" s="1"/>
+      <c r="S1029" s="1"/>
+      <c r="T1029" s="1"/>
+      <c r="U1029" s="1"/>
+      <c r="V1029" s="1"/>
+      <c r="W1029" s="1"/>
+      <c r="X1029" s="1"/>
+      <c r="Y1029" s="1"/>
+      <c r="Z1029" s="1"/>
+      <c r="AA1029" s="1"/>
+      <c r="AB1029" s="1"/>
+      <c r="AC1029" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="12">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E37:G37"/>
     <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E69:G69"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
